--- a/results/building-4f.xlsx
+++ b/results/building-4f.xlsx
@@ -618,6 +618,36 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> to leave building (4 width doors)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14199999999999999"/>
+          <c:y val="1.932367149758454E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1005,6 +1035,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Survival</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> rate (4 width doors)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -12047,7 +12100,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
